--- a/Data Science/LCS/Players/Crown.xlsx
+++ b/Data Science/LCS/Players/Crown.xlsx
@@ -14,11 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="103">
+  <si>
+    <t>datacompleteness</t>
+  </si>
   <si>
     <t>league</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>playoffs</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
@@ -106,15 +115,15 @@
     <t>opp_elementaldrakes</t>
   </si>
   <si>
-    <t>dragons (type unknown)</t>
-  </si>
-  <si>
     <t>elders</t>
   </si>
   <si>
     <t>opp_elders</t>
   </si>
   <si>
+    <t>firstherald</t>
+  </si>
+  <si>
     <t>heralds</t>
   </si>
   <si>
@@ -269,6 +278,9 @@
   </si>
   <si>
     <t>csdiffat15</t>
+  </si>
+  <si>
+    <t>complete</t>
   </si>
   <si>
     <t>LCS</t>
@@ -668,13 +680,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CH9"/>
+  <dimension ref="A1:CK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:86">
+    <row r="1" spans="1:89">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -930,325 +942,343 @@
       <c r="CH1" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="2" spans="1:86">
+    <row r="2" spans="1:89">
       <c r="A2" s="1">
-        <v>662</v>
+        <v>878</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2">
+        <v>2020</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>10.01</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" t="s">
-        <v>89</v>
       </c>
       <c r="H2" t="s">
         <v>90</v>
       </c>
       <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2">
+        <v>2413</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>15</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0.09950000000000001</v>
+      </c>
+      <c r="AC2">
+        <v>0.4724</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>13909</v>
+      </c>
+      <c r="AY2">
+        <v>345.8516</v>
+      </c>
+      <c r="AZ2">
+        <v>0.213761</v>
+      </c>
+      <c r="BA2">
+        <v>22</v>
+      </c>
+      <c r="BB2">
+        <v>0.547</v>
+      </c>
+      <c r="BC2">
+        <v>15</v>
+      </c>
+      <c r="BD2">
+        <v>0.373</v>
+      </c>
+      <c r="BE2">
+        <v>16</v>
+      </c>
+      <c r="BF2">
+        <v>52</v>
+      </c>
+      <c r="BG2">
+        <v>1.293</v>
+      </c>
+      <c r="BH2">
+        <v>14446</v>
+      </c>
+      <c r="BI2">
+        <v>9248</v>
+      </c>
+      <c r="BJ2">
+        <v>229.9544</v>
+      </c>
+      <c r="BK2">
+        <v>0.287242</v>
+      </c>
+      <c r="BL2">
+        <v>14100</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>323</v>
+      </c>
+      <c r="BO2">
+        <v>290</v>
+      </c>
+      <c r="BP2">
+        <v>33</v>
+      </c>
+      <c r="BQ2">
+        <v>32</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>8.031499999999999</v>
+      </c>
+      <c r="BT2">
+        <v>3564</v>
+      </c>
+      <c r="BU2">
+        <v>4404</v>
+      </c>
+      <c r="BV2">
+        <v>85</v>
+      </c>
+      <c r="BW2">
+        <v>3562</v>
+      </c>
+      <c r="BX2">
+        <v>4930</v>
+      </c>
+      <c r="BY2">
+        <v>89</v>
+      </c>
+      <c r="BZ2">
+        <v>2</v>
+      </c>
+      <c r="CA2">
+        <v>-526</v>
+      </c>
+      <c r="CB2">
+        <v>-4</v>
+      </c>
+      <c r="CC2">
+        <v>5210</v>
+      </c>
+      <c r="CD2">
+        <v>6626</v>
+      </c>
+      <c r="CE2">
+        <v>130</v>
+      </c>
+      <c r="CF2">
+        <v>6291</v>
+      </c>
+      <c r="CG2">
+        <v>8692</v>
+      </c>
+      <c r="CH2">
+        <v>166</v>
+      </c>
+      <c r="CI2">
+        <v>-1081</v>
+      </c>
+      <c r="CJ2">
+        <v>-2066</v>
+      </c>
+      <c r="CK2">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:89">
+      <c r="A3" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3">
+        <v>2020</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>10.01</v>
+      </c>
+      <c r="H3" t="s">
         <v>91</v>
-      </c>
-      <c r="J2">
-        <v>2413</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-      <c r="O2">
-        <v>4</v>
-      </c>
-      <c r="P2">
-        <v>15</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0.09950000000000001</v>
-      </c>
-      <c r="Z2">
-        <v>0.4724</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>13909</v>
-      </c>
-      <c r="AV2">
-        <v>345.8516</v>
-      </c>
-      <c r="AW2">
-        <v>0.213761</v>
-      </c>
-      <c r="AX2">
-        <v>22</v>
-      </c>
-      <c r="AY2">
-        <v>0.547</v>
-      </c>
-      <c r="AZ2">
-        <v>15</v>
-      </c>
-      <c r="BA2">
-        <v>0.373</v>
-      </c>
-      <c r="BB2">
-        <v>16</v>
-      </c>
-      <c r="BC2">
-        <v>52</v>
-      </c>
-      <c r="BD2">
-        <v>1.293</v>
-      </c>
-      <c r="BE2">
-        <v>14446</v>
-      </c>
-      <c r="BF2">
-        <v>9248</v>
-      </c>
-      <c r="BG2">
-        <v>229.9544</v>
-      </c>
-      <c r="BH2">
-        <v>0.287242</v>
-      </c>
-      <c r="BI2">
-        <v>14100</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>323</v>
-      </c>
-      <c r="BL2">
-        <v>290</v>
-      </c>
-      <c r="BM2">
-        <v>33</v>
-      </c>
-      <c r="BN2">
-        <v>32</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>8.031499999999999</v>
-      </c>
-      <c r="BQ2">
-        <v>3564</v>
-      </c>
-      <c r="BR2">
-        <v>4404</v>
-      </c>
-      <c r="BS2">
-        <v>85</v>
-      </c>
-      <c r="BT2">
-        <v>3562</v>
-      </c>
-      <c r="BU2">
-        <v>4930</v>
-      </c>
-      <c r="BV2">
-        <v>89</v>
-      </c>
-      <c r="BW2">
-        <v>2</v>
-      </c>
-      <c r="BX2">
-        <v>-526</v>
-      </c>
-      <c r="BY2">
-        <v>-4</v>
-      </c>
-      <c r="BZ2">
-        <v>5210</v>
-      </c>
-      <c r="CA2">
-        <v>6626</v>
-      </c>
-      <c r="CB2">
-        <v>130</v>
-      </c>
-      <c r="CC2">
-        <v>6291</v>
-      </c>
-      <c r="CD2">
-        <v>8692</v>
-      </c>
-      <c r="CE2">
-        <v>166</v>
-      </c>
-      <c r="CF2">
-        <v>-1081</v>
-      </c>
-      <c r="CG2">
-        <v>-2066</v>
-      </c>
-      <c r="CH2">
-        <v>-36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:86">
-      <c r="A3" s="1">
-        <v>799</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>10.01</v>
-      </c>
-      <c r="E3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" t="s">
-        <v>90</v>
       </c>
       <c r="I3" t="s">
         <v>92</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3">
         <v>1889</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>3</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>4</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>6</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>19</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
       <c r="T3">
         <v>0</v>
       </c>
@@ -1262,23 +1292,23 @@
         <v>0</v>
       </c>
       <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
         <v>1</v>
       </c>
-      <c r="Y3">
+      <c r="AB3">
         <v>0.1906</v>
       </c>
-      <c r="Z3">
+      <c r="AC3">
         <v>0.7941</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
       <c r="AD3">
         <v>0</v>
       </c>
@@ -1331,184 +1361,193 @@
         <v>0</v>
       </c>
       <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
         <v>11055</v>
       </c>
-      <c r="AV3">
+      <c r="AY3">
         <v>351.1382</v>
       </c>
-      <c r="AW3">
+      <c r="AZ3">
         <v>0.31659</v>
       </c>
-      <c r="AX3">
+      <c r="BA3">
         <v>19</v>
       </c>
-      <c r="AY3">
+      <c r="BB3">
         <v>0.6035</v>
       </c>
-      <c r="AZ3">
+      <c r="BC3">
         <v>4</v>
       </c>
-      <c r="BA3">
+      <c r="BD3">
         <v>0.1271</v>
       </c>
-      <c r="BB3">
+      <c r="BE3">
         <v>9</v>
       </c>
-      <c r="BC3">
+      <c r="BF3">
         <v>39</v>
       </c>
-      <c r="BD3">
+      <c r="BG3">
         <v>1.2388</v>
       </c>
-      <c r="BE3">
+      <c r="BH3">
         <v>11171</v>
       </c>
-      <c r="BF3">
+      <c r="BI3">
         <v>7042</v>
       </c>
-      <c r="BG3">
+      <c r="BJ3">
         <v>223.6739</v>
       </c>
-      <c r="BH3">
+      <c r="BK3">
         <v>0.244362</v>
       </c>
-      <c r="BI3">
+      <c r="BL3">
         <v>10275</v>
       </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
         <v>226</v>
       </c>
-      <c r="BL3">
+      <c r="BO3">
         <v>207</v>
       </c>
-      <c r="BM3">
+      <c r="BP3">
         <v>19</v>
       </c>
-      <c r="BN3">
+      <c r="BQ3">
         <v>14</v>
       </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
         <v>7.1784</v>
       </c>
-      <c r="BQ3">
+      <c r="BT3">
         <v>3185</v>
       </c>
-      <c r="BR3">
+      <c r="BU3">
         <v>4643</v>
       </c>
-      <c r="BS3">
+      <c r="BV3">
         <v>85</v>
       </c>
-      <c r="BT3">
+      <c r="BW3">
         <v>3911</v>
       </c>
-      <c r="BU3">
+      <c r="BX3">
         <v>4627</v>
       </c>
-      <c r="BV3">
+      <c r="BY3">
         <v>77</v>
       </c>
-      <c r="BW3">
+      <c r="BZ3">
         <v>-726</v>
       </c>
-      <c r="BX3">
+      <c r="CA3">
         <v>16</v>
       </c>
-      <c r="BY3">
+      <c r="CB3">
         <v>8</v>
       </c>
-      <c r="BZ3">
+      <c r="CC3">
         <v>5181</v>
       </c>
-      <c r="CA3">
+      <c r="CD3">
         <v>6900</v>
       </c>
-      <c r="CB3">
+      <c r="CE3">
         <v>126</v>
       </c>
-      <c r="CC3">
+      <c r="CF3">
         <v>5342</v>
       </c>
-      <c r="CD3">
+      <c r="CG3">
         <v>7253</v>
       </c>
-      <c r="CE3">
+      <c r="CH3">
         <v>113</v>
       </c>
-      <c r="CF3">
+      <c r="CI3">
         <v>-161</v>
       </c>
-      <c r="CG3">
+      <c r="CJ3">
         <v>-353</v>
       </c>
-      <c r="CH3">
+      <c r="CK3">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:86">
+    <row r="4" spans="1:89">
       <c r="A4" s="1">
-        <v>1154</v>
+        <v>1682</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4">
+        <v>2020</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>10.02</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" t="s">
-        <v>89</v>
       </c>
       <c r="H4" t="s">
         <v>90</v>
       </c>
       <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" t="s">
         <v>93</v>
       </c>
-      <c r="J4">
+      <c r="K4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4">
         <v>2186</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>2</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>1</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>5</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>9</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>14</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
       <c r="T4">
         <v>0</v>
       </c>
@@ -1525,20 +1564,20 @@
         <v>0</v>
       </c>
       <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
         <v>0.247</v>
       </c>
-      <c r="Z4">
+      <c r="AC4">
         <v>0.6313</v>
       </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
       <c r="AD4">
         <v>0</v>
       </c>
@@ -1591,704 +1630,731 @@
         <v>0</v>
       </c>
       <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
         <v>12751</v>
       </c>
-      <c r="AV4">
+      <c r="AY4">
         <v>349.9817</v>
       </c>
-      <c r="AW4">
+      <c r="AZ4">
         <v>0.272895</v>
       </c>
-      <c r="AX4">
+      <c r="BA4">
         <v>19</v>
       </c>
-      <c r="AY4">
+      <c r="BB4">
         <v>0.5215</v>
       </c>
-      <c r="AZ4">
+      <c r="BC4">
         <v>18</v>
       </c>
-      <c r="BA4">
+      <c r="BD4">
         <v>0.4941</v>
       </c>
-      <c r="BB4">
+      <c r="BE4">
         <v>8</v>
       </c>
-      <c r="BC4">
+      <c r="BF4">
         <v>47</v>
       </c>
-      <c r="BD4">
+      <c r="BG4">
         <v>1.29</v>
       </c>
-      <c r="BE4">
+      <c r="BH4">
         <v>13770</v>
       </c>
-      <c r="BF4">
+      <c r="BI4">
         <v>9035</v>
       </c>
-      <c r="BG4">
+      <c r="BJ4">
         <v>247.9872</v>
       </c>
-      <c r="BH4">
+      <c r="BK4">
         <v>0.242076</v>
       </c>
-      <c r="BI4">
+      <c r="BL4">
         <v>13200</v>
       </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
         <v>322</v>
       </c>
-      <c r="BL4">
+      <c r="BO4">
         <v>294</v>
       </c>
-      <c r="BM4">
+      <c r="BP4">
         <v>28</v>
       </c>
-      <c r="BN4">
+      <c r="BQ4">
         <v>19</v>
       </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
         <v>8.838100000000001</v>
       </c>
-      <c r="BQ4">
+      <c r="BT4">
         <v>3576</v>
       </c>
-      <c r="BR4">
+      <c r="BU4">
         <v>5178</v>
       </c>
-      <c r="BS4">
+      <c r="BV4">
         <v>103</v>
       </c>
-      <c r="BT4">
+      <c r="BW4">
         <v>3260</v>
       </c>
-      <c r="BU4">
+      <c r="BX4">
         <v>4725</v>
       </c>
-      <c r="BV4">
+      <c r="BY4">
         <v>90</v>
       </c>
-      <c r="BW4">
+      <c r="BZ4">
         <v>316</v>
       </c>
-      <c r="BX4">
+      <c r="CA4">
         <v>453</v>
       </c>
-      <c r="BY4">
+      <c r="CB4">
         <v>13</v>
       </c>
-      <c r="BZ4">
+      <c r="CC4">
         <v>5487</v>
       </c>
-      <c r="CA4">
+      <c r="CD4">
         <v>8066</v>
       </c>
-      <c r="CB4">
+      <c r="CE4">
         <v>160</v>
       </c>
-      <c r="CC4">
+      <c r="CF4">
         <v>5129</v>
       </c>
-      <c r="CD4">
+      <c r="CG4">
         <v>7723</v>
       </c>
-      <c r="CE4">
+      <c r="CH4">
         <v>147</v>
       </c>
-      <c r="CF4">
+      <c r="CI4">
         <v>358</v>
       </c>
-      <c r="CG4">
+      <c r="CJ4">
         <v>343</v>
       </c>
-      <c r="CH4">
+      <c r="CK4">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:86">
+    <row r="5" spans="1:89">
       <c r="A5" s="1">
-        <v>1423</v>
+        <v>2071</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>10.02</v>
       </c>
-      <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5">
+        <v>1803</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>7</v>
+      </c>
+      <c r="S5">
+        <v>12</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0.2329</v>
+      </c>
+      <c r="AC5">
+        <v>0.6323</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>3563</v>
+      </c>
+      <c r="AY5">
+        <v>118.5691</v>
+      </c>
+      <c r="AZ5">
+        <v>0.08409850000000001</v>
+      </c>
+      <c r="BA5">
+        <v>13</v>
+      </c>
+      <c r="BB5">
+        <v>0.4326</v>
+      </c>
+      <c r="BC5">
+        <v>4</v>
+      </c>
+      <c r="BD5">
+        <v>0.1331</v>
+      </c>
+      <c r="BE5">
+        <v>8</v>
+      </c>
+      <c r="BF5">
+        <v>32</v>
+      </c>
+      <c r="BG5">
+        <v>1.0649</v>
+      </c>
+      <c r="BH5">
+        <v>8508</v>
+      </c>
+      <c r="BI5">
+        <v>4554</v>
+      </c>
+      <c r="BJ5">
+        <v>151.5474</v>
+      </c>
+      <c r="BK5">
+        <v>0.170525</v>
+      </c>
+      <c r="BL5">
+        <v>8400</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>208</v>
+      </c>
+      <c r="BO5">
+        <v>204</v>
+      </c>
+      <c r="BP5">
+        <v>4</v>
+      </c>
+      <c r="BQ5">
+        <v>4</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>6.9218</v>
+      </c>
+      <c r="BT5">
+        <v>3102</v>
+      </c>
+      <c r="BU5">
+        <v>4595</v>
+      </c>
+      <c r="BV5">
+        <v>83</v>
+      </c>
+      <c r="BW5">
+        <v>3527</v>
+      </c>
+      <c r="BX5">
+        <v>5099</v>
+      </c>
+      <c r="BY5">
+        <v>99</v>
+      </c>
+      <c r="BZ5">
+        <v>-425</v>
+      </c>
+      <c r="CA5">
+        <v>-504</v>
+      </c>
+      <c r="CB5">
+        <v>-16</v>
+      </c>
+      <c r="CC5">
+        <v>4736</v>
+      </c>
+      <c r="CD5">
+        <v>7236</v>
+      </c>
+      <c r="CE5">
+        <v>132</v>
+      </c>
+      <c r="CF5">
+        <v>5119</v>
+      </c>
+      <c r="CG5">
+        <v>7524</v>
+      </c>
+      <c r="CH5">
+        <v>146</v>
+      </c>
+      <c r="CI5">
+        <v>-383</v>
+      </c>
+      <c r="CJ5">
+        <v>-288</v>
+      </c>
+      <c r="CK5">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:89">
+      <c r="A6" s="1">
+        <v>3307</v>
+      </c>
+      <c r="B6" t="s">
         <v>88</v>
       </c>
-      <c r="G5" t="s">
+      <c r="C6" t="s">
         <v>89</v>
       </c>
-      <c r="H5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="D6">
+        <v>2020</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>10.02</v>
+      </c>
+      <c r="H6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" t="s">
         <v>94</v>
       </c>
-      <c r="J5">
-        <v>1803</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
+      <c r="L6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6">
+        <v>2181</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>9</v>
+      </c>
+      <c r="R6">
+        <v>23</v>
+      </c>
+      <c r="S6">
+        <v>11</v>
+      </c>
+      <c r="T6">
         <v>2</v>
       </c>
-      <c r="N5">
+      <c r="U6">
         <v>2</v>
       </c>
-      <c r="O5">
-        <v>7</v>
-      </c>
-      <c r="P5">
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>0.6327</v>
+      </c>
+      <c r="AC6">
+        <v>0.9354</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>24125</v>
+      </c>
+      <c r="AY6">
+        <v>663.6864</v>
+      </c>
+      <c r="AZ6">
+        <v>0.2814</v>
+      </c>
+      <c r="BA6">
+        <v>20</v>
+      </c>
+      <c r="BB6">
+        <v>0.5502</v>
+      </c>
+      <c r="BC6">
+        <v>6</v>
+      </c>
+      <c r="BD6">
+        <v>0.1651</v>
+      </c>
+      <c r="BE6">
+        <v>9</v>
+      </c>
+      <c r="BF6">
+        <v>32</v>
+      </c>
+      <c r="BG6">
+        <v>0.8803</v>
+      </c>
+      <c r="BH6">
+        <v>15970</v>
+      </c>
+      <c r="BI6">
+        <v>11245</v>
+      </c>
+      <c r="BJ6">
+        <v>309.3535</v>
+      </c>
+      <c r="BK6">
+        <v>0.262831</v>
+      </c>
+      <c r="BL6">
+        <v>13625</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>274</v>
+      </c>
+      <c r="BO6">
+        <v>261</v>
+      </c>
+      <c r="BP6">
+        <v>13</v>
+      </c>
+      <c r="BQ6">
         <v>12</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0.2329</v>
-      </c>
-      <c r="Z5">
-        <v>0.6323</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>3563</v>
-      </c>
-      <c r="AV5">
-        <v>118.5691</v>
-      </c>
-      <c r="AW5">
-        <v>0.08409850000000001</v>
-      </c>
-      <c r="AX5">
-        <v>13</v>
-      </c>
-      <c r="AY5">
-        <v>0.4326</v>
-      </c>
-      <c r="AZ5">
+      <c r="BR6">
+        <v>1</v>
+      </c>
+      <c r="BS6">
+        <v>7.5378</v>
+      </c>
+      <c r="BT6">
+        <v>3325</v>
+      </c>
+      <c r="BU6">
+        <v>4840</v>
+      </c>
+      <c r="BV6">
+        <v>93</v>
+      </c>
+      <c r="BW6">
+        <v>3455</v>
+      </c>
+      <c r="BX6">
+        <v>5076</v>
+      </c>
+      <c r="BY6">
+        <v>89</v>
+      </c>
+      <c r="BZ6">
+        <v>-130</v>
+      </c>
+      <c r="CA6">
+        <v>-236</v>
+      </c>
+      <c r="CB6">
         <v>4</v>
       </c>
-      <c r="BA5">
-        <v>0.1331</v>
-      </c>
-      <c r="BB5">
-        <v>8</v>
-      </c>
-      <c r="BC5">
-        <v>32</v>
-      </c>
-      <c r="BD5">
-        <v>1.0649</v>
-      </c>
-      <c r="BE5">
-        <v>8508</v>
-      </c>
-      <c r="BF5">
-        <v>4554</v>
-      </c>
-      <c r="BG5">
-        <v>151.5474</v>
-      </c>
-      <c r="BH5">
-        <v>0.170525</v>
-      </c>
-      <c r="BI5">
-        <v>8400</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>208</v>
-      </c>
-      <c r="BL5">
-        <v>204</v>
-      </c>
-      <c r="BM5">
-        <v>4</v>
-      </c>
-      <c r="BN5">
-        <v>4</v>
-      </c>
-      <c r="BO5">
-        <v>0</v>
-      </c>
-      <c r="BP5">
-        <v>6.9218</v>
-      </c>
-      <c r="BQ5">
-        <v>3102</v>
-      </c>
-      <c r="BR5">
-        <v>4595</v>
-      </c>
-      <c r="BS5">
-        <v>83</v>
-      </c>
-      <c r="BT5">
-        <v>3527</v>
-      </c>
-      <c r="BU5">
-        <v>5099</v>
-      </c>
-      <c r="BV5">
-        <v>99</v>
-      </c>
-      <c r="BW5">
-        <v>-425</v>
-      </c>
-      <c r="BX5">
-        <v>-504</v>
-      </c>
-      <c r="BY5">
-        <v>-16</v>
-      </c>
-      <c r="BZ5">
-        <v>4736</v>
-      </c>
-      <c r="CA5">
-        <v>7236</v>
-      </c>
-      <c r="CB5">
-        <v>132</v>
-      </c>
-      <c r="CC5">
-        <v>5119</v>
-      </c>
-      <c r="CD5">
-        <v>7524</v>
-      </c>
-      <c r="CE5">
-        <v>146</v>
-      </c>
-      <c r="CF5">
-        <v>-383</v>
-      </c>
-      <c r="CG5">
-        <v>-288</v>
-      </c>
-      <c r="CH5">
-        <v>-14</v>
+      <c r="CC6">
+        <v>5231</v>
+      </c>
+      <c r="CD6">
+        <v>7394</v>
+      </c>
+      <c r="CE6">
+        <v>147</v>
+      </c>
+      <c r="CF6">
+        <v>5886</v>
+      </c>
+      <c r="CG6">
+        <v>8483</v>
+      </c>
+      <c r="CH6">
+        <v>150</v>
+      </c>
+      <c r="CI6">
+        <v>-655</v>
+      </c>
+      <c r="CJ6">
+        <v>-1089</v>
+      </c>
+      <c r="CK6">
+        <v>-3</v>
       </c>
     </row>
-    <row r="6" spans="1:86">
-      <c r="A6" s="1">
-        <v>1951</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6">
+    <row r="7" spans="1:89">
+      <c r="A7" s="1">
+        <v>3746</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7">
+        <v>2020</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="G7">
         <v>10.02</v>
-      </c>
-      <c r="E6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6">
-        <v>2181</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>9</v>
-      </c>
-      <c r="O6">
-        <v>23</v>
-      </c>
-      <c r="P6">
-        <v>11</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>0.6327</v>
-      </c>
-      <c r="Z6">
-        <v>0.9354</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>24125</v>
-      </c>
-      <c r="AV6">
-        <v>663.6864</v>
-      </c>
-      <c r="AW6">
-        <v>0.2814</v>
-      </c>
-      <c r="AX6">
-        <v>20</v>
-      </c>
-      <c r="AY6">
-        <v>0.5502</v>
-      </c>
-      <c r="AZ6">
-        <v>6</v>
-      </c>
-      <c r="BA6">
-        <v>0.1651</v>
-      </c>
-      <c r="BB6">
-        <v>9</v>
-      </c>
-      <c r="BC6">
-        <v>32</v>
-      </c>
-      <c r="BD6">
-        <v>0.8803</v>
-      </c>
-      <c r="BE6">
-        <v>15970</v>
-      </c>
-      <c r="BF6">
-        <v>11245</v>
-      </c>
-      <c r="BG6">
-        <v>309.3535</v>
-      </c>
-      <c r="BH6">
-        <v>0.262831</v>
-      </c>
-      <c r="BI6">
-        <v>13625</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>274</v>
-      </c>
-      <c r="BL6">
-        <v>261</v>
-      </c>
-      <c r="BM6">
-        <v>13</v>
-      </c>
-      <c r="BN6">
-        <v>12</v>
-      </c>
-      <c r="BO6">
-        <v>1</v>
-      </c>
-      <c r="BP6">
-        <v>7.5378</v>
-      </c>
-      <c r="BQ6">
-        <v>3325</v>
-      </c>
-      <c r="BR6">
-        <v>4840</v>
-      </c>
-      <c r="BS6">
-        <v>93</v>
-      </c>
-      <c r="BT6">
-        <v>3455</v>
-      </c>
-      <c r="BU6">
-        <v>5076</v>
-      </c>
-      <c r="BV6">
-        <v>89</v>
-      </c>
-      <c r="BW6">
-        <v>-130</v>
-      </c>
-      <c r="BX6">
-        <v>-236</v>
-      </c>
-      <c r="BY6">
-        <v>4</v>
-      </c>
-      <c r="BZ6">
-        <v>5231</v>
-      </c>
-      <c r="CA6">
-        <v>7394</v>
-      </c>
-      <c r="CB6">
-        <v>147</v>
-      </c>
-      <c r="CC6">
-        <v>5886</v>
-      </c>
-      <c r="CD6">
-        <v>8483</v>
-      </c>
-      <c r="CE6">
-        <v>150</v>
-      </c>
-      <c r="CF6">
-        <v>-655</v>
-      </c>
-      <c r="CG6">
-        <v>-1089</v>
-      </c>
-      <c r="CH6">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:86">
-      <c r="A7" s="1">
-        <v>2282</v>
-      </c>
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>10.02</v>
-      </c>
-      <c r="E7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" t="s">
-        <v>89</v>
       </c>
       <c r="H7" t="s">
         <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7">
         <v>2438</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>2</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>2</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>2</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>9</v>
       </c>
-      <c r="P7">
+      <c r="S7">
         <v>8</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
       <c r="T7">
         <v>0</v>
       </c>
@@ -2305,20 +2371,20 @@
         <v>0</v>
       </c>
       <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
         <v>0.2215</v>
       </c>
-      <c r="Z7">
+      <c r="AC7">
         <v>0.4184</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
       <c r="AD7">
         <v>0</v>
       </c>
@@ -2368,187 +2434,196 @@
         <v>0</v>
       </c>
       <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
         <v>1</v>
       </c>
-      <c r="AU7">
+      <c r="AX7">
         <v>16987</v>
       </c>
-      <c r="AV7">
+      <c r="AY7">
         <v>418.0558</v>
       </c>
-      <c r="AW7">
+      <c r="AZ7">
         <v>0.312198</v>
       </c>
-      <c r="AX7">
+      <c r="BA7">
         <v>21</v>
       </c>
-      <c r="AY7">
+      <c r="BB7">
         <v>0.5168</v>
       </c>
-      <c r="AZ7">
+      <c r="BC7">
         <v>12</v>
       </c>
-      <c r="BA7">
+      <c r="BD7">
         <v>0.2953</v>
       </c>
-      <c r="BB7">
+      <c r="BE7">
         <v>8</v>
       </c>
-      <c r="BC7">
+      <c r="BF7">
         <v>57</v>
       </c>
-      <c r="BD7">
+      <c r="BG7">
         <v>1.4028</v>
       </c>
-      <c r="BE7">
+      <c r="BH7">
         <v>12068</v>
       </c>
-      <c r="BF7">
+      <c r="BI7">
         <v>6819</v>
       </c>
-      <c r="BG7">
+      <c r="BJ7">
         <v>167.8179</v>
       </c>
-      <c r="BH7">
+      <c r="BK7">
         <v>0.16421</v>
       </c>
-      <c r="BI7">
+      <c r="BL7">
         <v>11550</v>
       </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
         <v>245</v>
       </c>
-      <c r="BL7">
+      <c r="BO7">
         <v>213</v>
       </c>
-      <c r="BM7">
+      <c r="BP7">
         <v>32</v>
       </c>
-      <c r="BN7">
+      <c r="BQ7">
         <v>29</v>
       </c>
-      <c r="BO7">
+      <c r="BR7">
         <v>2</v>
       </c>
-      <c r="BP7">
+      <c r="BS7">
         <v>6.0295</v>
       </c>
-      <c r="BQ7">
+      <c r="BT7">
         <v>3275</v>
       </c>
-      <c r="BR7">
+      <c r="BU7">
         <v>4968</v>
       </c>
-      <c r="BS7">
+      <c r="BV7">
         <v>88</v>
       </c>
-      <c r="BT7">
+      <c r="BW7">
         <v>3378</v>
       </c>
-      <c r="BU7">
+      <c r="BX7">
         <v>4875</v>
       </c>
-      <c r="BV7">
+      <c r="BY7">
         <v>94</v>
       </c>
-      <c r="BW7">
+      <c r="BZ7">
         <v>-103</v>
       </c>
-      <c r="BX7">
+      <c r="CA7">
         <v>93</v>
       </c>
-      <c r="BY7">
+      <c r="CB7">
         <v>-6</v>
       </c>
-      <c r="BZ7">
+      <c r="CC7">
         <v>4935</v>
       </c>
-      <c r="CA7">
+      <c r="CD7">
         <v>6938</v>
       </c>
-      <c r="CB7">
+      <c r="CE7">
         <v>128</v>
       </c>
-      <c r="CC7">
+      <c r="CF7">
         <v>4967</v>
       </c>
-      <c r="CD7">
+      <c r="CG7">
         <v>7107</v>
       </c>
-      <c r="CE7">
+      <c r="CH7">
         <v>143</v>
       </c>
-      <c r="CF7">
+      <c r="CI7">
         <v>-32</v>
       </c>
-      <c r="CG7">
+      <c r="CJ7">
         <v>-169</v>
       </c>
-      <c r="CH7">
+      <c r="CK7">
         <v>-15</v>
       </c>
     </row>
-    <row r="8" spans="1:86">
+    <row r="8" spans="1:89">
       <c r="A8" s="1">
-        <v>2786</v>
+        <v>5018</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8">
+        <v>2020</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>10.03</v>
-      </c>
-      <c r="E8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" t="s">
-        <v>89</v>
       </c>
       <c r="H8" t="s">
         <v>90</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8">
         <v>1617</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>2</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <v>6</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <v>2</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>9</v>
       </c>
-      <c r="P8">
+      <c r="S8">
         <v>15</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
       <c r="T8">
         <v>0</v>
       </c>
@@ -2565,20 +2640,20 @@
         <v>0</v>
       </c>
       <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <v>0.334</v>
       </c>
-      <c r="Z8">
+      <c r="AC8">
         <v>0.8905</v>
       </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
       <c r="AD8">
         <v>0</v>
       </c>
@@ -2631,184 +2706,193 @@
         <v>0</v>
       </c>
       <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
         <v>9113</v>
       </c>
-      <c r="AV8">
+      <c r="AY8">
         <v>338.1447</v>
       </c>
-      <c r="AW8">
+      <c r="AZ8">
         <v>0.190366</v>
       </c>
-      <c r="AX8">
+      <c r="BA8">
         <v>13</v>
       </c>
-      <c r="AY8">
+      <c r="BB8">
         <v>0.4824</v>
       </c>
-      <c r="AZ8">
+      <c r="BC8">
         <v>3</v>
       </c>
-      <c r="BA8">
+      <c r="BD8">
         <v>0.1113</v>
       </c>
-      <c r="BB8">
+      <c r="BE8">
         <v>9</v>
       </c>
-      <c r="BC8">
+      <c r="BF8">
         <v>25</v>
       </c>
-      <c r="BD8">
+      <c r="BG8">
         <v>0.9276</v>
       </c>
-      <c r="BE8">
+      <c r="BH8">
         <v>8964</v>
       </c>
-      <c r="BF8">
+      <c r="BI8">
         <v>5390</v>
       </c>
-      <c r="BG8">
+      <c r="BJ8">
         <v>200</v>
       </c>
-      <c r="BH8">
+      <c r="BK8">
         <v>0.216806</v>
       </c>
-      <c r="BI8">
+      <c r="BL8">
         <v>9050</v>
       </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
         <v>214</v>
       </c>
-      <c r="BL8">
+      <c r="BO8">
         <v>202</v>
       </c>
-      <c r="BM8">
+      <c r="BP8">
         <v>12</v>
       </c>
-      <c r="BN8">
+      <c r="BQ8">
         <v>12</v>
       </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
-      <c r="BP8">
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
         <v>7.9406</v>
       </c>
-      <c r="BQ8">
+      <c r="BT8">
         <v>3638</v>
       </c>
-      <c r="BR8">
+      <c r="BU8">
         <v>4607</v>
       </c>
-      <c r="BS8">
+      <c r="BV8">
         <v>91</v>
       </c>
-      <c r="BT8">
+      <c r="BW8">
         <v>3415</v>
       </c>
-      <c r="BU8">
+      <c r="BX8">
         <v>4762</v>
       </c>
-      <c r="BV8">
+      <c r="BY8">
         <v>95</v>
       </c>
-      <c r="BW8">
+      <c r="BZ8">
         <v>223</v>
       </c>
-      <c r="BX8">
+      <c r="CA8">
         <v>-155</v>
       </c>
-      <c r="BY8">
+      <c r="CB8">
         <v>-4</v>
       </c>
-      <c r="BZ8">
+      <c r="CC8">
         <v>5272</v>
       </c>
-      <c r="CA8">
+      <c r="CD8">
         <v>7479</v>
       </c>
-      <c r="CB8">
+      <c r="CE8">
         <v>140</v>
       </c>
-      <c r="CC8">
+      <c r="CF8">
         <v>5450</v>
       </c>
-      <c r="CD8">
+      <c r="CG8">
         <v>7863</v>
       </c>
-      <c r="CE8">
+      <c r="CH8">
         <v>157</v>
       </c>
-      <c r="CF8">
+      <c r="CI8">
         <v>-178</v>
       </c>
-      <c r="CG8">
+      <c r="CJ8">
         <v>-384</v>
       </c>
-      <c r="CH8">
+      <c r="CK8">
         <v>-17</v>
       </c>
     </row>
-    <row r="9" spans="1:86">
+    <row r="9" spans="1:89">
       <c r="A9" s="1">
-        <v>2942</v>
+        <v>5246</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="G9">
         <v>10.03</v>
-      </c>
-      <c r="E9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" t="s">
-        <v>89</v>
       </c>
       <c r="H9" t="s">
         <v>90</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9">
         <v>1406</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>4</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>1</v>
       </c>
-      <c r="P9">
+      <c r="S9">
         <v>15</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
       <c r="T9">
         <v>0</v>
       </c>
@@ -2825,20 +2909,20 @@
         <v>0</v>
       </c>
       <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
         <v>0.0427</v>
       </c>
-      <c r="Z9">
+      <c r="AC9">
         <v>0.6828</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
       <c r="AD9">
         <v>0</v>
       </c>
@@ -2888,126 +2972,135 @@
         <v>0</v>
       </c>
       <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
         <v>2</v>
       </c>
-      <c r="AU9">
+      <c r="AX9">
         <v>7872</v>
       </c>
-      <c r="AV9">
+      <c r="AY9">
         <v>335.9317</v>
       </c>
-      <c r="AW9">
+      <c r="AZ9">
         <v>0.34937</v>
       </c>
-      <c r="AX9">
+      <c r="BA9">
         <v>9</v>
       </c>
-      <c r="AY9">
+      <c r="BB9">
         <v>0.3841</v>
       </c>
-      <c r="AZ9">
+      <c r="BC9">
         <v>2</v>
       </c>
-      <c r="BA9">
+      <c r="BD9">
         <v>0.0853</v>
       </c>
-      <c r="BB9">
+      <c r="BE9">
         <v>2</v>
       </c>
-      <c r="BC9">
+      <c r="BF9">
         <v>16</v>
       </c>
-      <c r="BD9">
+      <c r="BG9">
         <v>0.6828</v>
       </c>
-      <c r="BE9">
+      <c r="BH9">
         <v>6961</v>
       </c>
-      <c r="BF9">
+      <c r="BI9">
         <v>3817</v>
       </c>
-      <c r="BG9">
+      <c r="BJ9">
         <v>162.8876</v>
       </c>
-      <c r="BH9">
+      <c r="BK9">
         <v>0.225763</v>
       </c>
-      <c r="BI9">
+      <c r="BL9">
         <v>6775</v>
       </c>
-      <c r="BJ9">
-        <v>0</v>
-      </c>
-      <c r="BK9">
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
         <v>175</v>
       </c>
-      <c r="BL9">
+      <c r="BO9">
         <v>170</v>
       </c>
-      <c r="BM9">
+      <c r="BP9">
         <v>5</v>
       </c>
-      <c r="BN9">
-        <v>0</v>
-      </c>
-      <c r="BO9">
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
         <v>1</v>
       </c>
-      <c r="BP9">
+      <c r="BS9">
         <v>7.468</v>
       </c>
-      <c r="BQ9">
+      <c r="BT9">
         <v>3343</v>
       </c>
-      <c r="BR9">
+      <c r="BU9">
         <v>4977</v>
       </c>
-      <c r="BS9">
+      <c r="BV9">
         <v>93</v>
       </c>
-      <c r="BT9">
+      <c r="BW9">
         <v>3378</v>
       </c>
-      <c r="BU9">
+      <c r="BX9">
         <v>5005</v>
       </c>
-      <c r="BV9">
+      <c r="BY9">
         <v>94</v>
       </c>
-      <c r="BW9">
+      <c r="BZ9">
         <v>-35</v>
       </c>
-      <c r="BX9">
+      <c r="CA9">
         <v>-28</v>
       </c>
-      <c r="BY9">
+      <c r="CB9">
         <v>-1</v>
       </c>
-      <c r="BZ9">
+      <c r="CC9">
         <v>4895</v>
       </c>
-      <c r="CA9">
+      <c r="CD9">
         <v>7512</v>
       </c>
-      <c r="CB9">
+      <c r="CE9">
         <v>132</v>
       </c>
-      <c r="CC9">
+      <c r="CF9">
         <v>5186</v>
       </c>
-      <c r="CD9">
+      <c r="CG9">
         <v>8070</v>
       </c>
-      <c r="CE9">
+      <c r="CH9">
         <v>148</v>
       </c>
-      <c r="CF9">
+      <c r="CI9">
         <v>-291</v>
       </c>
-      <c r="CG9">
+      <c r="CJ9">
         <v>-558</v>
       </c>
-      <c r="CH9">
+      <c r="CK9">
         <v>-16</v>
       </c>
     </row>
